--- a/EDC22通信协议v0.7.xlsx
+++ b/EDC22通信协议v0.7.xlsx
@@ -130,7 +130,7 @@
     <t>B车区域</t>
   </si>
   <si>
-    <t>0we</t>
+    <t>0为在迷宫里1为</t>
   </si>
   <si>
     <t>防汛物资1位置X</t>
@@ -204,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -219,14 +219,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,128 +361,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,31 +371,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,150 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,23 +568,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,11 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,21 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,11 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/EDC22通信协议v0.7.xlsx
+++ b/EDC22通信协议v0.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14205" windowHeight="11670"/>
+    <workbookView windowWidth="14445" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>MSB</t>
   </si>
@@ -191,6 +191,198 @@
   </si>
   <si>
     <t>B车收集物资数</t>
+  </si>
+  <si>
+    <t>虚拟障碍物1A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物1A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物1B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物1B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物2A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物2A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物2B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物2B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物3A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物3A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物3B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物3B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物4A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物4A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物4B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物4B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物5A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物5A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物5B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物5B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物6A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物6A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物6B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物6B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物7A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物7A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物7B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物7B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物8A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物8A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物8B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物8B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物9A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物9A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物9B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物9B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物10A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物10A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物10B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物10B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物11A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物11A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物11B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物11B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物12A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物12A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物12B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物12B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物13A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物13A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物13B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物13B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物14A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物14A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物14B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物14B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物15A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物15A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物15B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物15B位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物16A位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物16A位置Y</t>
+  </si>
+  <si>
+    <t>虚拟障碍物16B位置X</t>
+  </si>
+  <si>
+    <t>虚拟障碍物16B位置Y</t>
   </si>
   <si>
     <t>0x0D</t>
@@ -204,9 +396,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -219,21 +411,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,38 +457,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,14 +471,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +493,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -331,16 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,7 +547,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -371,13 +563,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,169 +713,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,44 +754,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,6 +768,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +796,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,17 +837,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +874,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,15 +1336,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="7" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
@@ -1696,20 +1889,980 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1750,8 +2903,8 @@
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B103:I103"/>
+    <mergeCell ref="B104:I104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/EDC22通信协议v0.7.xlsx
+++ b/EDC22通信协议v0.7.xlsx
@@ -130,7 +130,7 @@
     <t>B车区域</t>
   </si>
   <si>
-    <t>0为在迷宫里1为</t>
+    <t>1为在迷宫里0为在迷宫外</t>
   </si>
   <si>
     <t>防汛物资1位置X</t>
@@ -396,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -407,6 +407,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,21 +440,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -449,7 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,29 +456,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,14 +470,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,13 +503,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,6 +529,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -563,25 +563,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,157 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,6 +754,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -781,6 +790,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -792,6 +816,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,50 +854,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,133 +874,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/EDC22通信协议v0.7.xlsx
+++ b/EDC22通信协议v0.7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>MSB</t>
   </si>
@@ -40,16 +40,10 @@
     <t>比赛状态</t>
   </si>
   <si>
-    <t>A车任务</t>
-  </si>
-  <si>
-    <t>B车任务</t>
-  </si>
-  <si>
-    <t>A车上是否有人</t>
-  </si>
-  <si>
-    <t>B车上是否有人</t>
+    <t>车辆任务</t>
+  </si>
+  <si>
+    <t>车上是否有人</t>
   </si>
   <si>
     <t>泄洪口开启信息</t>
@@ -124,10 +118,7 @@
     <t>物资6是否被收集</t>
   </si>
   <si>
-    <t>A车区域</t>
-  </si>
-  <si>
-    <t>B车区域</t>
+    <t>车辆区域</t>
   </si>
   <si>
     <t>1为在迷宫里0为在迷宫外</t>
@@ -169,28 +160,16 @@
     <t>防汛物资6位置Y</t>
   </si>
   <si>
-    <t>A车得分（高8位）</t>
-  </si>
-  <si>
-    <t>A车得分（低8位）</t>
-  </si>
-  <si>
-    <t>B车得分（高8位）</t>
-  </si>
-  <si>
-    <t>B车得分（低8位）</t>
-  </si>
-  <si>
-    <t>A车运送人员数</t>
-  </si>
-  <si>
-    <t>B车运送人员数</t>
-  </si>
-  <si>
-    <t>A车收集物资数</t>
-  </si>
-  <si>
-    <t>B车收集物资数</t>
+    <t>车辆得分（高8位）</t>
+  </si>
+  <si>
+    <t>车辆得分（低8位）</t>
+  </si>
+  <si>
+    <t>运送人员数</t>
+  </si>
+  <si>
+    <t>收集物资数</t>
   </si>
   <si>
     <t>虚拟障碍物1A位置X</t>
@@ -397,9 +376,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -407,6 +386,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,66 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,8 +442,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,17 +520,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,43 +542,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,133 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,26 +745,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,17 +799,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,28 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,16 +853,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,115 +871,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1425,30 +1404,30 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1456,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1467,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1475,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1483,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1491,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1506,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1521,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1536,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1551,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1566,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
@@ -1574,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1589,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1604,31 +1583,29 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18"/>
+      <c r="J18" t="s">
         <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
@@ -1636,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1651,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1666,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1681,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1696,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1711,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1726,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1741,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1756,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1771,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1786,7 +1763,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1801,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1816,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1824,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1832,54 +1809,75 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1894,7 +1892,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1909,7 +1907,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1924,7 +1922,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1939,7 +1937,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1954,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1969,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1984,7 +1982,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1999,7 +1997,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2014,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2029,7 +2027,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2044,7 +2042,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2059,7 +2057,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2074,7 +2072,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2089,7 +2087,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2104,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2119,7 +2117,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2134,7 +2132,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2149,7 +2147,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2164,7 +2162,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2179,7 +2177,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2194,7 +2192,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2209,7 +2207,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2224,7 +2222,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2239,7 +2237,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2254,7 +2252,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2269,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2284,7 +2282,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2299,7 +2297,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2314,7 +2312,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2329,7 +2327,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2344,7 +2342,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2359,7 +2357,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2374,7 +2372,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2389,7 +2387,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2404,7 +2402,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2419,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2434,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2449,7 +2447,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2464,7 +2462,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2479,7 +2477,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2494,7 +2492,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2509,7 +2507,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2524,7 +2522,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2539,7 +2537,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2554,7 +2552,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2569,7 +2567,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2584,7 +2582,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2599,7 +2597,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2614,7 +2612,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2629,7 +2627,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2644,7 +2642,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2659,7 +2657,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2674,7 +2672,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2689,7 +2687,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2704,7 +2702,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2719,7 +2717,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2734,7 +2732,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2749,7 +2747,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2764,7 +2762,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2779,7 +2777,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2789,84 +2787,24 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>98</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
-        <v>99</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>124</v>
+      <c r="B100" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="34">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:C5"/>
@@ -2899,12 +2837,8 @@
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="B100:I100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
